--- a/Excel Files/CHIK_Guadeloupe.xlsx
+++ b/Excel Files/CHIK_Guadeloupe.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joceline Lega\Box Sync\DyMSiM\One- or Two-Parabola Models\MATLAB\Math_EpiGro_paper\MATLAB_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17550" yWindow="90" windowWidth="9345" windowHeight="12390"/>
+    <workbookView xWindow="17550" yWindow="90" windowWidth="9345" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -206,6 +211,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -487,121 +512,121 @@
                   <c:v>7328</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8213</c:v>
+                  <c:v>9706</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10909</c:v>
+                  <c:v>12551</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14316</c:v>
+                  <c:v>16044</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18514</c:v>
+                  <c:v>20225</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23511</c:v>
+                  <c:v>25080</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29240</c:v>
+                  <c:v>30523</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35503</c:v>
+                  <c:v>36389</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42031</c:v>
+                  <c:v>42448</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>48513</c:v>
+                  <c:v>48440</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>54615</c:v>
+                  <c:v>54114</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>60095</c:v>
+                  <c:v>59271</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>64823</c:v>
+                  <c:v>63786</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>68748</c:v>
+                  <c:v>67612</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>71893</c:v>
+                  <c:v>70765</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>74358</c:v>
+                  <c:v>73304</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>76260</c:v>
+                  <c:v>75312</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>77700</c:v>
+                  <c:v>76876</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>78780</c:v>
+                  <c:v>78080</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>79582</c:v>
+                  <c:v>78999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>80174</c:v>
+                  <c:v>79696</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>80619</c:v>
+                  <c:v>80222</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>80946</c:v>
+                  <c:v>80617</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>81173</c:v>
+                  <c:v>80913</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>81327</c:v>
+                  <c:v>81134</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>81447</c:v>
+                  <c:v>81299</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>81542</c:v>
+                  <c:v>81422</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>81611</c:v>
+                  <c:v>81514</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>81656</c:v>
+                  <c:v>81582</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>81686</c:v>
+                  <c:v>81633</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>81710</c:v>
+                  <c:v>81671</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>81732</c:v>
+                  <c:v>81699</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>81749</c:v>
+                  <c:v>81720</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>81760</c:v>
+                  <c:v>81735</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>81765</c:v>
+                  <c:v>81747</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>81755</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>81762</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>81766</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>81765</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>81768</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>81774</c:v>
+                  <c:v>81770</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>81769</c:v>
+                  <c:v>81772</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>81768</c:v>
@@ -1068,11 +1093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96024064"/>
-        <c:axId val="96799744"/>
+        <c:axId val="707397296"/>
+        <c:axId val="707411440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96024064"/>
+        <c:axId val="707397296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,12 +1154,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96799744"/>
+        <c:crossAx val="707411440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96799744"/>
+        <c:axId val="707411440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96024064"/>
+        <c:crossAx val="707397296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2129,7 +2154,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2139,7 +2164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -2958,7 +2983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
@@ -3008,7 +3033,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>6566.017512618967</v>
+        <v>6078.4963219120191</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3020,7 +3045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3037,7 +3062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3054,7 +3079,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3071,7 +3096,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3088,7 +3113,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>7</v>
       </c>
@@ -3099,12 +3124,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -3116,7 +3141,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3133,7 +3158,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3150,7 +3175,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>11</v>
       </c>
@@ -3161,7 +3186,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>12</v>
       </c>
@@ -3172,7 +3197,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>13</v>
       </c>
@@ -3183,7 +3208,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>14</v>
       </c>
@@ -3194,7 +3219,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>15</v>
       </c>
@@ -3205,7 +3230,7 @@
         <v>5971</v>
       </c>
     </row>
-    <row r="18" spans="4:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>16</v>
       </c>
@@ -3224,7 +3249,7 @@
         <v>9328</v>
       </c>
       <c r="F19">
-        <v>8213</v>
+        <v>9706</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -3235,7 +3260,7 @@
         <v>11928</v>
       </c>
       <c r="F20">
-        <v>10909</v>
+        <v>12551</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
@@ -3246,7 +3271,7 @@
         <v>14928</v>
       </c>
       <c r="F21">
-        <v>14316</v>
+        <v>16044</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
@@ -3257,7 +3282,7 @@
         <v>19328</v>
       </c>
       <c r="F22">
-        <v>18514</v>
+        <v>20225</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
@@ -3268,7 +3293,7 @@
         <v>24428</v>
       </c>
       <c r="F23">
-        <v>23511</v>
+        <v>25080</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
@@ -3279,7 +3304,7 @@
         <v>36328</v>
       </c>
       <c r="F24">
-        <v>29240</v>
+        <v>30523</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
@@ -3290,7 +3315,7 @@
         <v>36328</v>
       </c>
       <c r="F25">
-        <v>35503</v>
+        <v>36389</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
@@ -3301,7 +3326,7 @@
         <v>41728</v>
       </c>
       <c r="F26">
-        <v>42031</v>
+        <v>42448</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
@@ -3312,7 +3337,7 @@
         <v>41728</v>
       </c>
       <c r="F27">
-        <v>48513</v>
+        <v>48440</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
@@ -3323,7 +3348,7 @@
         <v>53328</v>
       </c>
       <c r="F28">
-        <v>54615</v>
+        <v>54114</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
@@ -3334,7 +3359,7 @@
         <v>53328</v>
       </c>
       <c r="F29">
-        <v>60095</v>
+        <v>59271</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
@@ -3345,7 +3370,7 @@
         <v>64328</v>
       </c>
       <c r="F30">
-        <v>64823</v>
+        <v>63786</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
@@ -3356,7 +3381,7 @@
         <v>64328</v>
       </c>
       <c r="F31">
-        <v>68748</v>
+        <v>67612</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
@@ -3367,7 +3392,7 @@
         <v>71068</v>
       </c>
       <c r="F32">
-        <v>71893</v>
+        <v>70765</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
@@ -3378,7 +3403,7 @@
         <v>71068</v>
       </c>
       <c r="F33">
-        <v>74358</v>
+        <v>73304</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
@@ -3389,7 +3414,7 @@
         <v>71068</v>
       </c>
       <c r="F34">
-        <v>76260</v>
+        <v>75312</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
@@ -3400,7 +3425,7 @@
         <v>74448</v>
       </c>
       <c r="F35">
-        <v>77700</v>
+        <v>76876</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
@@ -3411,7 +3436,7 @@
         <v>76728</v>
       </c>
       <c r="F36">
-        <v>78780</v>
+        <v>78080</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
@@ -3422,7 +3447,7 @@
         <v>76728</v>
       </c>
       <c r="F37">
-        <v>79582</v>
+        <v>78999</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
@@ -3433,7 +3458,7 @@
         <v>78550</v>
       </c>
       <c r="F38">
-        <v>80174</v>
+        <v>79696</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
@@ -3444,7 +3469,7 @@
         <v>78550</v>
       </c>
       <c r="F39">
-        <v>80619</v>
+        <v>80222</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
@@ -3455,7 +3480,7 @@
         <v>78550</v>
       </c>
       <c r="F40">
-        <v>80946</v>
+        <v>80617</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
@@ -3466,7 +3491,7 @@
         <v>80240</v>
       </c>
       <c r="F41">
-        <v>81173</v>
+        <v>80913</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
@@ -3477,7 +3502,7 @@
         <v>80240</v>
       </c>
       <c r="F42">
-        <v>81327</v>
+        <v>81134</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
@@ -3488,7 +3513,7 @@
         <v>80240</v>
       </c>
       <c r="F43">
-        <v>81447</v>
+        <v>81299</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
@@ -3499,7 +3524,7 @@
         <v>80962</v>
       </c>
       <c r="F44">
-        <v>81542</v>
+        <v>81422</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
@@ -3510,7 +3535,7 @@
         <v>80962</v>
       </c>
       <c r="F45">
-        <v>81611</v>
+        <v>81514</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
@@ -3521,7 +3546,7 @@
         <v>80962</v>
       </c>
       <c r="F46">
-        <v>81656</v>
+        <v>81582</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
@@ -3532,7 +3557,7 @@
         <v>81392</v>
       </c>
       <c r="F47">
-        <v>81686</v>
+        <v>81633</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
@@ -3543,7 +3568,7 @@
         <v>81392</v>
       </c>
       <c r="F48">
-        <v>81710</v>
+        <v>81671</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
@@ -3554,7 +3579,7 @@
         <v>81392</v>
       </c>
       <c r="F49">
-        <v>81732</v>
+        <v>81699</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
@@ -3565,7 +3590,7 @@
         <v>81392</v>
       </c>
       <c r="F50">
-        <v>81749</v>
+        <v>81720</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
@@ -3576,7 +3601,7 @@
         <v>81392</v>
       </c>
       <c r="F51">
-        <v>81760</v>
+        <v>81735</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
@@ -3587,7 +3612,7 @@
         <v>81630</v>
       </c>
       <c r="F52">
-        <v>81765</v>
+        <v>81747</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
@@ -3598,7 +3623,7 @@
         <v>81630</v>
       </c>
       <c r="F53">
-        <v>81766</v>
+        <v>81755</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
@@ -3609,7 +3634,7 @@
         <v>81630</v>
       </c>
       <c r="F54">
-        <v>81765</v>
+        <v>81762</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
@@ -3620,7 +3645,7 @@
         <v>81630</v>
       </c>
       <c r="F55">
-        <v>81768</v>
+        <v>81766</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
@@ -3631,7 +3656,7 @@
         <v>81630</v>
       </c>
       <c r="F56">
-        <v>81774</v>
+        <v>81770</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
@@ -3642,7 +3667,7 @@
         <v>81630</v>
       </c>
       <c r="F57">
-        <v>81769</v>
+        <v>81772</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
